--- a/data/trans_orig/IP12BS02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3F8288-71F0-4033-80FC-0313C180C2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66189785-8403-494E-941C-05EC2472CB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1C189ED-5E0F-4516-8D67-48F9F8D6BB5D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8BE3E27-1D4E-4B6A-8B19-425AA656AFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="351">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 2 en 2007 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -139,961 +139,952 @@
     <t>31,4%</t>
   </si>
   <si>
-    <t>74,61%</t>
+    <t>73,91%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>48,75%</t>
+    <t>45,29%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>46,13%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>70,61%</t>
+    <t>71,71%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>44,78%</t>
+    <t>46,38%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>58,73%</t>
+    <t>58,86%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>51,67%</t>
+    <t>51,76%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2012 (Tasa respuesta: 1,24%)</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>41,94%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2012 (Tasa respuesta: 1,24%)</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2016 (Tasa respuesta: 1,13%)</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2015 (Tasa respuesta: 1,13%)</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>20,15%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>57,78%</t>
+    <t>47,98%</t>
   </si>
   <si>
     <t>10,85%</t>
@@ -1511,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A92B5CB-720D-428D-B3B8-40C542D2528A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC85006-AE87-41A2-B897-D97BB48F2AAF}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2384,10 +2375,10 @@
         <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2393,13 @@
         <v>1343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2417,13 +2408,13 @@
         <v>613</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2432,10 +2423,10 @@
         <v>1955</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>44</v>
@@ -4506,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055F912F-FBF4-4593-A86B-DC2446A3FDAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0E6A04-1383-4512-98E2-A683F1E33D48}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6296,13 +6287,13 @@
         <v>2122</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6512,7 @@
         <v>942</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
@@ -6551,13 +6542,13 @@
         <v>942</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6578,13 @@
         <v>661</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -6602,13 +6593,13 @@
         <v>661</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6629,13 @@
         <v>656</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -6653,13 +6644,13 @@
         <v>656</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6769,13 @@
         <v>744</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -6793,13 +6784,13 @@
         <v>1334</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -6808,13 +6799,13 @@
         <v>2079</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6826,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -6865,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6871,13 @@
         <v>645</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -6910,13 +6901,13 @@
         <v>645</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,7 +6928,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -6967,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +6973,13 @@
         <v>6598</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -6997,13 +6988,13 @@
         <v>2964</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -7012,13 +7003,13 @@
         <v>9562</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7024,13 @@
         <v>607</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7063,13 +7054,13 @@
         <v>607</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7081,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -7099,13 +7090,13 @@
         <v>875</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -7114,13 +7105,13 @@
         <v>875</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7132,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -7345,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -7375,7 +7366,7 @@
         <v>252</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -7426,7 +7417,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,7 +7492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994BAE89-9A7E-49F7-B849-459FAB990F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08DE217-D984-478D-8003-40F5CAD82185}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7518,7 +7509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7757,7 +7748,7 @@
         <v>564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
@@ -7910,7 +7901,7 @@
         <v>892</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
@@ -8356,13 +8347,13 @@
         <v>1335</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -8371,13 +8362,13 @@
         <v>1335</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8428,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8449,13 @@
         <v>564</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -8473,13 +8464,13 @@
         <v>564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,13 +8485,13 @@
         <v>634</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8524,13 +8515,13 @@
         <v>634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8536,13 @@
         <v>1853</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -8560,13 +8551,13 @@
         <v>1206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -8575,13 +8566,13 @@
         <v>3059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,7 +8623,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8647,13 +8638,13 @@
         <v>652</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -8662,13 +8653,13 @@
         <v>772</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -8677,13 +8668,13 @@
         <v>1424</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8689,13 @@
         <v>644</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8728,13 +8719,13 @@
         <v>644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8740,13 @@
         <v>764</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8779,13 +8770,13 @@
         <v>764</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8836,7 +8827,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8887,7 +8878,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,7 +8929,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,7 +8980,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,13 +9063,13 @@
         <v>792</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9087,13 +9078,13 @@
         <v>792</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,13 +9267,13 @@
         <v>1914</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -9291,13 +9282,13 @@
         <v>3230</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,13 +9369,13 @@
         <v>560</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -9393,13 +9384,13 @@
         <v>560</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9582,13 +9573,13 @@
         <v>1760</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -9597,13 +9588,13 @@
         <v>1759</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9779,7 +9770,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -9788,13 +9779,13 @@
         <v>2127</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -9803,13 +9794,13 @@
         <v>2127</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9830,7 +9821,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -9845,7 +9836,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -9860,7 +9851,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9881,7 +9872,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -9890,13 +9881,13 @@
         <v>1128</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -9905,13 +9896,13 @@
         <v>1128</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9926,13 +9917,13 @@
         <v>634</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -9947,7 +9938,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -9956,13 +9947,13 @@
         <v>634</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9977,13 +9968,13 @@
         <v>3170</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -9992,13 +9983,13 @@
         <v>3119</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -10007,13 +9998,13 @@
         <v>6289</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10028,13 +10019,13 @@
         <v>891</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -10049,7 +10040,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -10058,13 +10049,13 @@
         <v>891</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10079,13 +10070,13 @@
         <v>652</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -10094,13 +10085,13 @@
         <v>1331</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -10109,13 +10100,13 @@
         <v>1984</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10130,13 +10121,13 @@
         <v>644</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -10151,7 +10142,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -10160,13 +10151,13 @@
         <v>644</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10181,13 +10172,13 @@
         <v>764</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -10202,7 +10193,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -10211,13 +10202,13 @@
         <v>764</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10238,7 +10229,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -10253,7 +10244,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -10268,7 +10259,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10289,7 +10280,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -10298,13 +10289,13 @@
         <v>1759</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -10313,13 +10304,13 @@
         <v>1759</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10340,7 +10331,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -10355,7 +10346,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -10370,7 +10361,7 @@
         <v>12</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10391,7 +10382,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10406,7 +10397,7 @@
         <v>12</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -10421,7 +10412,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
